--- a/물자업무 자동화_테스트/Config/물자_config.xlsx
+++ b/물자업무 자동화_테스트/Config/물자_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\물자업무 자동화_테스트\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\파트너동반성장팀 RPA과업\물자업무 자동화_테스트\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/물자업무 자동화_테스트/Config/물자_config.xlsx
+++ b/물자업무 자동화_테스트/Config/물자_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,30 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재시도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retryCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retryDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재시도 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재시도 지연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:00:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로세스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기준정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,14 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재시도 횟수 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재시도 지연시간 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>납품서등록 담당자명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +118,10 @@
   </si>
   <si>
     <t>SRM_Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA실행전 강제로 종료할 프로세스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -766,120 +734,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
-        <v>20</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A8"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
